--- a/TP2/Punto14.A_Notebook.xlsx
+++ b/TP2/Punto14.A_Notebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ezequiel Baamonde\Desktop\UNLP\2do AÑO\ISO\Práctica\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D18DDC-B9C1-4C63-B215-6463642FE81A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D6AF5E-1630-4438-BC5F-DD55AFCE391D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>Punto14.A</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>(R2, 1, 2) (R2, 5, 3)</t>
+  </si>
+  <si>
+    <t>7&lt;</t>
   </si>
   <si>
     <t>(R1, 2, 3) (R3, 4, 3)</t>
@@ -115,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +160,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -173,7 +184,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC9211E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -182,6 +200,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -197,7 +223,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
     <fill>
@@ -208,7 +234,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF729FCF"/>
+        <fgColor rgb="FF5983B0"/>
         <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
@@ -295,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -307,10 +333,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -324,13 +353,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -340,35 +370,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,7 +419,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB4C7E7"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF729FCF"/>
+      <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -423,13 +449,13 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF5983B0"/>
       <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -630,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL14"/>
+  <dimension ref="A1:AP14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +667,7 @@
     <col min="25" max="25" width="10.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -654,7 +680,7 @@
       <c r="H1" s="7"/>
       <c r="Y1" s="8"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -669,111 +695,123 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="12">
         <v>0</v>
       </c>
-      <c r="I2" s="11">
-        <v>1</v>
-      </c>
-      <c r="J2" s="11">
-        <v>2</v>
-      </c>
-      <c r="K2" s="11">
+      <c r="I2" s="12">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12">
+        <v>2</v>
+      </c>
+      <c r="K2" s="12">
         <v>3</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="12">
         <v>4</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="12">
         <v>5</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="12">
         <v>6</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="12">
         <v>7</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="12">
         <v>8</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="12">
         <v>9</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="12">
         <v>10</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="12">
         <v>11</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="12">
         <v>12</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="12">
         <v>13</v>
       </c>
-      <c r="V2" s="11">
+      <c r="V2" s="12">
         <v>14</v>
       </c>
-      <c r="W2" s="11">
+      <c r="W2" s="12">
         <v>15</v>
       </c>
-      <c r="X2" s="11">
+      <c r="X2" s="12">
         <v>16</v>
       </c>
-      <c r="Y2" s="12">
+      <c r="Y2" s="13">
         <v>17</v>
       </c>
-      <c r="Z2" s="11">
+      <c r="Z2" s="12">
         <v>18</v>
       </c>
-      <c r="AA2" s="11">
+      <c r="AA2" s="12">
         <v>19</v>
       </c>
-      <c r="AB2" s="11">
+      <c r="AB2" s="12">
         <v>20</v>
       </c>
-      <c r="AC2" s="11">
+      <c r="AC2" s="12">
         <v>21</v>
       </c>
-      <c r="AD2" s="11">
+      <c r="AD2" s="12">
         <v>22</v>
       </c>
-      <c r="AE2" s="11">
+      <c r="AE2" s="12">
         <v>23</v>
       </c>
-      <c r="AF2" s="11">
+      <c r="AF2" s="12">
         <v>24</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AG2" s="12">
         <v>25</v>
       </c>
-      <c r="AH2" s="11">
+      <c r="AH2" s="12">
         <v>26</v>
       </c>
-      <c r="AI2" s="11">
+      <c r="AI2" s="12">
         <v>27</v>
       </c>
-      <c r="AJ2" s="11">
+      <c r="AJ2" s="12">
         <v>28</v>
       </c>
-      <c r="AK2" s="11">
+      <c r="AK2" s="12">
         <v>29</v>
       </c>
-      <c r="AL2" s="11">
+      <c r="AL2" s="12">
         <v>30</v>
       </c>
+      <c r="AM2" s="12">
+        <v>31</v>
+      </c>
+      <c r="AN2" s="12">
+        <v>32</v>
+      </c>
+      <c r="AO2" s="12">
+        <v>33</v>
+      </c>
+      <c r="AP2" s="12">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
         <v>0</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -781,38 +819,38 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="13">
-        <v>1</v>
-      </c>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="14">
+        <v>1</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="15">
-        <v>2</v>
-      </c>
-      <c r="J3" s="16">
+      <c r="I3" s="16">
+        <v>2</v>
+      </c>
+      <c r="J3" s="17">
         <v>3</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="16">
+      <c r="K3" s="17">
         <v>4</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="L3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="17">
+        <v>4</v>
+      </c>
+      <c r="R3" s="17">
         <v>5</v>
       </c>
-      <c r="R3" s="16">
+      <c r="S3" s="17">
         <v>6</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>9</v>
       </c>
       <c r="T3" s="18" t="s">
         <v>9</v>
@@ -820,13 +858,13 @@
       <c r="U3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="17">
         <v>7</v>
       </c>
-      <c r="W3" s="16">
-        <v>8</v>
-      </c>
-      <c r="X3" s="18" t="s">
+      <c r="X3" s="17">
         <v>8</v>
       </c>
       <c r="Y3" s="18" t="s">
@@ -835,29 +873,35 @@
       <c r="Z3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AA3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -865,69 +909,83 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="13">
-        <v>2</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="14" t="s">
+      <c r="G4" s="14">
+        <v>2</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="16">
-        <v>1</v>
-      </c>
-      <c r="L4" s="16">
-        <v>2</v>
-      </c>
-      <c r="M4" s="16">
+      <c r="J4" s="13"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="17">
+        <v>1</v>
+      </c>
+      <c r="M4" s="17">
+        <v>2</v>
+      </c>
+      <c r="N4" s="17">
         <v>3</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>13</v>
       </c>
       <c r="O4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="16">
+      <c r="P4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="16">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="16">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="16">
         <v>4</v>
       </c>
-      <c r="Z4" s="18" t="s">
+      <c r="AF4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="22" t="s">
+      <c r="AG4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="23" t="s">
+      <c r="AH4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22"/>
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="12">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12">
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -935,63 +993,67 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="13">
+      <c r="G5" s="14">
         <v>3</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="14" t="s">
+      <c r="H5" s="13"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="23">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="23">
-        <v>2</v>
-      </c>
-      <c r="AG5" s="23">
+      <c r="K5" s="24"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="16">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="16">
         <v>3</v>
       </c>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="23">
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="25">
         <v>4</v>
       </c>
-      <c r="AK5" s="24" t="s">
+      <c r="AO5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AL5" s="23" t="s">
+      <c r="AP5" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>3</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -999,98 +1061,101 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="13">
-        <v>2</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="14" t="s">
+      <c r="G6" s="14">
+        <v>2</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="16">
-        <v>1</v>
-      </c>
-      <c r="V6" s="18" t="s">
-        <v>9</v>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="17">
+        <v>1</v>
       </c>
       <c r="W6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="16">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="16">
+      <c r="X6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="16">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="16">
         <v>3</v>
       </c>
-      <c r="AB6" s="16">
+      <c r="AF6" s="16">
         <v>4</v>
       </c>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="23">
+      <c r="AG6" s="16">
         <v>5</v>
       </c>
-      <c r="AE6" s="24" t="s">
+      <c r="AH6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="AF6" s="24" t="s">
+      <c r="AI6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="AG6" s="24" t="s">
+      <c r="AJ6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="AH6" s="23">
+      <c r="AL6" s="16">
         <v>6</v>
       </c>
-      <c r="AI6" s="23">
-        <v>7</v>
-      </c>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="20"/>
+      <c r="AM6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="12">
         <v>5</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="13">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="14" t="s">
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="15">
-        <v>1</v>
-      </c>
-      <c r="P7" s="15">
+      <c r="N7" s="21"/>
+      <c r="O7" s="16">
+        <v>1</v>
+      </c>
+      <c r="P7" s="16">
         <v>2</v>
       </c>
       <c r="Q7" s="18" t="s">
@@ -1099,14 +1164,14 @@
       <c r="R7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="17">
         <v>3</v>
       </c>
-      <c r="T7" s="8">
+      <c r="U7" s="17">
         <v>4</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>13</v>
       </c>
       <c r="V7" s="18" t="s">
         <v>13</v>
@@ -1114,337 +1179,351 @@
       <c r="W7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="X7" s="16" t="s">
+      <c r="X7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="22"/>
     </row>
-    <row r="8" spans="1:38" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="11"/>
+    <row r="8" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="12"/>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
     </row>
-    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="34">
-        <v>1</v>
-      </c>
-      <c r="I9" s="35">
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="35">
+        <v>1</v>
+      </c>
+      <c r="I9" s="36">
         <v>5</v>
       </c>
-      <c r="J9" s="36">
-        <v>1</v>
-      </c>
-      <c r="K9" s="35">
+      <c r="J9" s="37">
+        <v>1</v>
+      </c>
+      <c r="K9" s="36">
         <v>5</v>
       </c>
-      <c r="L9" s="35">
-        <v>1</v>
-      </c>
-      <c r="M9" s="35">
+      <c r="L9" s="36">
+        <v>1</v>
+      </c>
+      <c r="M9" s="38">
         <v>5</v>
       </c>
-      <c r="N9" s="36">
-        <v>1</v>
-      </c>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="39"/>
-      <c r="AL9" s="39"/>
+      <c r="N9" s="39">
+        <v>1</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33" t="s">
-        <v>22</v>
+      <c r="F10" s="34"/>
+      <c r="G10" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="H10" s="41">
         <v>2</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="36">
         <v>4</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="36">
         <v>2</v>
       </c>
       <c r="K10" s="42">
         <v>4</v>
       </c>
-      <c r="L10" s="36">
-        <v>2</v>
-      </c>
-      <c r="M10" s="35">
+      <c r="L10" s="37">
+        <v>2</v>
+      </c>
+      <c r="M10" s="36">
         <v>4</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N10" s="38">
+        <v>2</v>
+      </c>
+      <c r="O10" s="43">
         <v>4</v>
       </c>
-      <c r="O10" s="37"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="39"/>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="39"/>
-      <c r="AL10" s="39"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F11" s="32"/>
-      <c r="G11" s="33" t="s">
-        <v>23</v>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F11" s="34"/>
+      <c r="G11" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="H11" s="41">
         <v>3</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="44">
         <v>3</v>
       </c>
-      <c r="J11" s="44"/>
+      <c r="J11" s="13"/>
       <c r="K11" s="45"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
       <c r="Q11" s="45"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
       <c r="Y11" s="45"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="39"/>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="39"/>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="39"/>
-      <c r="AL11" s="39"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F12" s="32"/>
-      <c r="G12" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="46">
-        <v>1</v>
-      </c>
-      <c r="I12" s="47">
-        <v>1</v>
-      </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="39"/>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F12" s="34"/>
+      <c r="G12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="41">
+        <v>1</v>
+      </c>
+      <c r="I12" s="36">
+        <v>5</v>
+      </c>
+      <c r="J12" s="47">
+        <v>1</v>
+      </c>
+      <c r="K12" s="36">
+        <v>3</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F13" s="32"/>
-      <c r="G13" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="46">
-        <v>1</v>
-      </c>
-      <c r="I13" s="47">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F13" s="34"/>
+      <c r="G13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="41">
+        <v>1</v>
+      </c>
+      <c r="I13" s="36">
         <v>4</v>
       </c>
-      <c r="J13" s="47">
+      <c r="J13" s="36">
         <v>4</v>
       </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="39"/>
-      <c r="AL13" s="39"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="G14" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="47">
-        <v>2</v>
-      </c>
-      <c r="I14" s="47">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="G14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="36">
+        <v>2</v>
+      </c>
+      <c r="I14" s="36">
         <v>5</v>
       </c>
-      <c r="J14" s="47">
-        <v>2</v>
-      </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="20"/>
-      <c r="AH14" s="20"/>
-      <c r="AI14" s="20"/>
-      <c r="AJ14" s="20"/>
-      <c r="AK14" s="20"/>
-      <c r="AL14" s="20"/>
+      <c r="J14" s="36">
+        <v>2</v>
+      </c>
+      <c r="K14" s="36">
+        <v>2</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
